--- a/data/trans_dic/P23_10_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_10_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o muchos menos consejos útiles de los que desea cuando le ocurre algún acontecimiento importante en su vida</t>
+          <t>Población que recibe menos o muchos menos consejos útiles de los que desea cuando le ocurre algún acontecimiento importante en su vida (tasa de respuesta: 99,2%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>4,86%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>5,7%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>5,62%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6,55%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,85%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 13,33</t>
+          <t>0,0; 23,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,3</t>
+          <t>0,0; 12,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,27</t>
+          <t>0,0; 21,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 15,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>0,0; 15,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 12,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 11,27</t>
+          <t>2,37; 19,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,46</t>
+          <t>0,0; 20,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 8,71</t>
+          <t>1,47; 13,7</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,75</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2,29; 17,44</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 13,81</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>3,59%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8,79%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,64</t>
+          <t>0,0; 13,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 30,64</t>
+          <t>2,01; 45,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,99</t>
+          <t>0,0; 12,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 13,1</t>
+          <t>0,0; 6,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,67</t>
+          <t>0,0; 13,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,06</t>
+          <t>0,0; 7,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 8,31</t>
+          <t>0,0; 7,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 16,79</t>
+          <t>0,0; 7,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,76</t>
+          <t>0,86; 8,5</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 31,69</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 7,34</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,64</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>10,12%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,18%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6,57%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6,69%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,93; 42,86</t>
+          <t>8,51; 28,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 24,42</t>
+          <t>3,22; 17,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 11,5</t>
+          <t>4,22; 20,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 10,04</t>
+          <t>3,13; 17,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 7,3</t>
+          <t>2,71; 12,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 6,64</t>
+          <t>1,75; 10,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,44; 23,98</t>
+          <t>0,9; 8,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 14,03</t>
+          <t>1,99; 12,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 8,21</t>
+          <t>6,5; 15,65</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3,2; 11,32</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3,47; 11,7</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3,16; 11,7</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>10,94%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6,76%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7,24%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5,44%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 11,16</t>
+          <t>3,21; 15,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 12,07</t>
+          <t>2,63; 15,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 11,02</t>
+          <t>2,41; 13,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,49; 15,97</t>
+          <t>1,4; 11,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 11,35</t>
+          <t>8,17; 21,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 13,78</t>
+          <t>2,59; 11,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,83; 12,77</t>
+          <t>3,87; 14,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 9,65</t>
+          <t>2,76; 13,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 10,86</t>
+          <t>7,19; 16,01</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>3,9; 11,18</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3,89; 11,96</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2,73; 9,65</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,99%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7,48%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,6; 11,16</t>
+          <t>2,69; 15,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 8,09</t>
+          <t>1,22; 11,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,26; 16,1</t>
+          <t>3,08; 17,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,66; 12,16</t>
+          <t>1,64; 14,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,53; 16,38</t>
+          <t>0,0; 14,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,92; 12,2</t>
+          <t>2,06; 19,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,99; 9,47</t>
+          <t>1,72; 15,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,16; 9,65</t>
+          <t>2,26; 22,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,05; 11,99</t>
+          <t>2,62; 10,95</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2,68; 11,53</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3,46; 12,59</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3,57; 13,86</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>7,69%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>9,52%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>6,4%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,33; 11,51</t>
+          <t>0,0; 15,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,18; 19,54</t>
+          <t>5,05; 28,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,39; 22,24</t>
+          <t>2,53; 23,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,22; 26,94</t>
+          <t>0,0; 13,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,88; 12,92</t>
+          <t>2,48; 27,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,07</t>
+          <t>0,0; 22,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,65; 17,05</t>
+          <t>0,0; 8,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,02; 13,03</t>
+          <t>1,85; 23,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,48; 12,29</t>
+          <t>2,53; 19,0</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>4,34; 18,25</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 12,22</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 16,53</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>7,68%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6,39%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5,83%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4,98%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,7; 14,24</t>
+          <t>5,2; 11,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,19; 10,6</t>
+          <t>5,27; 17,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,07; 8,11</t>
+          <t>4,57; 10,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,77; 10,58</t>
+          <t>2,27; 6,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,93</t>
+          <t>5,43; 10,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,16; 6,23</t>
+          <t>2,71; 6,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,35; 10,77</t>
+          <t>2,96; 7,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,52</t>
+          <t>3,61; 9,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,02; 6,62</t>
+          <t>5,82; 10,17</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4,58; 10,21</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4,11; 7,88</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3,45; 7,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o muchos menos consejos útiles de los que desea cuando le ocurre algún acontecimiento importante en su vida (tasa de respuesta: 99,2%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7032</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2514</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6386</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6506</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9995</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8109</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13538</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2514</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16381</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>8109</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 24954</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13129</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 26796</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20705</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2909; 24135</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 29803</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3532; 33031</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12973</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5729; 43604</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 39306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3845</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>21795</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4764</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2501</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8039</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1784</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2258</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>11884</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>23736</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6549</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4760</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 22362</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2889; 65039</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19624</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15773</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 21324</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9942</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9900</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 11689</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2863; 28157</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4718; 85586</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1931; 20595</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18093</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>27821</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11449</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15469</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>15516</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15290</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9802</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6755</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>12571</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>43111</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>21250</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>22224</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>28087</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13794; 46146</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4332; 24131</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5807; 28724</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5639; 31857</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7150; 31704</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3656; 21465</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1805; 17379</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4765; 28769</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>27689; 66697</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10992; 38908</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>11727; 39556</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13253; 49133</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>13424</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12217</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>9709</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>9204</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>30619</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11130</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>13815</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>12887</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>44044</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>23347</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>23524</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>22091</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5986; 28416</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4235; 24334</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3722; 21607</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2704; 21971</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>17650; 46510</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4768; 22001</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6588; 25200</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5882; 29118</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>28944; 64490</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>13466; 38586</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>12660; 38887</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>11083; 39226</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>10880</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5263</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>10312</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9847</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4651</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7805</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5282</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>11564</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>15531</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>13068</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>15594</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>21411</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4115; 23588</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1564; 14391</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3789; 21306</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2542; 22868</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 16104</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1852; 17956</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1564; 14052</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2976; 29166</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>7004; 29257</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5852; 25158</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7418; 26982</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>10214; 39677</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5267</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>11065</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3395</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>12529</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6451</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2033</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>17146</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>17797</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>17515</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>9058</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>20541</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16047</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4292; 24490</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2136; 19452</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16952</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3164; 34920</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 21966</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 9481</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>3585; 45933</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5853; 43945</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>7994; 33574</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2235; 23604</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>5988; 53036</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>68270</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>64303</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>53665</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>40463</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>77634</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>37128</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>39664</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>64535</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>145904</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>101431</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>93329</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>104998</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>45850; 100021</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>39983; 129501</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>35758; 83214</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>23218; 65160</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>55277; 110737</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>22463; 57219</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>24277; 59284</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>39203; 103313</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>110471; 193090</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>72613; 162096</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>65861; 126159</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>72793; 150815</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>